--- a/data/trans_dic/P29A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29A-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4539663250819598</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4486101873874941</v>
+        <v>0.4486101873874942</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1128266314345185</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4063640274412559</v>
+        <v>0.40320434232253</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4574184637419783</v>
+        <v>0.4573184787113144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4154618732701795</v>
+        <v>0.4186925418436642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.403921592552972</v>
+        <v>0.4092357322074616</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09512160598829272</v>
+        <v>0.09815779354318294</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1258471683229102</v>
+        <v>0.124838899761035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1070531004722872</v>
+        <v>0.105745735136735</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07635239890861398</v>
+        <v>0.07549436292659034</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2352396254712858</v>
+        <v>0.2357476684881278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2700127591579813</v>
+        <v>0.2683318621580617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2461331186527159</v>
+        <v>0.2478721028315237</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2175880882041122</v>
+        <v>0.2184037181093813</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4641350450929013</v>
+        <v>0.4651319153818358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5249420810778995</v>
+        <v>0.5256599303964664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4873249587326751</v>
+        <v>0.4901702080411815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4861222454514714</v>
+        <v>0.4860933887516225</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1306635603946167</v>
+        <v>0.1319437726592103</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1645039813697891</v>
+        <v>0.1632623211225555</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1517937646214812</v>
+        <v>0.151278779656233</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1104228131536167</v>
+        <v>0.1090024300266894</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2695839774208555</v>
+        <v>0.2701357177898149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3082206078210464</v>
+        <v>0.3055073235840762</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.289362033173699</v>
+        <v>0.287374767551313</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2615035303571692</v>
+        <v>0.2615730931278141</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3471914547373605</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2584225830612108</v>
+        <v>0.2584225830612109</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4620018260669329</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.575764456400818</v>
+        <v>0.5775241138543277</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5506542100286801</v>
+        <v>0.5496013623647789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5620039059329177</v>
+        <v>0.5637885086844316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4456107230755794</v>
+        <v>0.4465322736952799</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2904847613575258</v>
+        <v>0.2914791402977827</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2717261507805497</v>
+        <v>0.2717299968221711</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3283631007368101</v>
+        <v>0.325960408082732</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2417919852885189</v>
+        <v>0.2387083437493557</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4423966460674974</v>
+        <v>0.4447151418356469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4221518226726806</v>
+        <v>0.4219786364621648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.451589400649345</v>
+        <v>0.4538834084916607</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3490866724549999</v>
+        <v>0.3501609668720224</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6255418731620083</v>
+        <v>0.6250086615724998</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5976025083585973</v>
+        <v>0.5962635661289517</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6086752928814307</v>
+        <v>0.6073104114687911</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4937980686240214</v>
+        <v>0.4937877482014344</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3362314503258557</v>
+        <v>0.3380095804828534</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3141881737044723</v>
+        <v>0.3143766207443201</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.371410028213105</v>
+        <v>0.3681658940666619</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2787213464171696</v>
+        <v>0.2748728916608119</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4787690690713229</v>
+        <v>0.4807247329479046</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.454888290124624</v>
+        <v>0.4553097787278512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.48411205999762</v>
+        <v>0.4850983157581357</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3807589180856388</v>
+        <v>0.3832301780683158</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.676182955259194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5171945614006431</v>
+        <v>0.517194561400643</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3837329239872627</v>
@@ -969,7 +969,7 @@
         <v>0.5862794897014447</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4418689918601827</v>
+        <v>0.4418689918601826</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5611291717390223</v>
+        <v>0.5592600745592677</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6071430435587045</v>
+        <v>0.6072294204942509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6297524552174534</v>
+        <v>0.6327813159875598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4718872737569563</v>
+        <v>0.4770620856721342</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3360902973664753</v>
+        <v>0.3403642991865263</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4071492090962913</v>
+        <v>0.402335965112379</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4528004186325265</v>
+        <v>0.4561677716587034</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3367845916869621</v>
+        <v>0.3389570006150641</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4692272462499885</v>
+        <v>0.4722011112850507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.518569793622833</v>
+        <v>0.5187740706595553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5549355122191849</v>
+        <v>0.5545181329703734</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4162232907076224</v>
+        <v>0.4149338235679766</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.648380212772856</v>
+        <v>0.6526452686861791</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7067494661045816</v>
+        <v>0.7090801987501304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7148493523505821</v>
+        <v>0.7170136718420093</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5568524866761313</v>
+        <v>0.5580243595043717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4277485639002391</v>
+        <v>0.4285794501678072</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5042411675793542</v>
+        <v>0.5077931866835231</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5460629196539165</v>
+        <v>0.5396774752709963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4021641347181501</v>
+        <v>0.4034886503502655</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5318334587590312</v>
+        <v>0.5310864592995977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5896348152580849</v>
+        <v>0.5884279456107179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6169338810984453</v>
+        <v>0.6149106548601956</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4674072022133269</v>
+        <v>0.4678870126887174</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4355264915645385</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3565995806768392</v>
+        <v>0.3565995806768393</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5429078943291004</v>
+        <v>0.542366373110482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.552548417879801</v>
+        <v>0.5540452837216606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4584744879499356</v>
+        <v>0.4583597780956303</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2417226110972017</v>
+        <v>0.2426458233640769</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2925414515409535</v>
+        <v>0.2923121257871883</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2298100748062569</v>
+        <v>0.2300755542869581</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.391360454211383</v>
+        <v>0.3915960632479645</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4213362105602856</v>
+        <v>0.4232348760729849</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3440323759970036</v>
+        <v>0.3449754817567329</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5778223098041115</v>
+        <v>0.5781260285530305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5892408927895139</v>
+        <v>0.5892064454941633</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4965915645733095</v>
+        <v>0.495869646403405</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2713355366015301</v>
+        <v>0.2718761039906769</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3249353461326331</v>
+        <v>0.3243832453472405</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.256613488879351</v>
+        <v>0.2560265879352848</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4170074260269812</v>
+        <v>0.4162581721954955</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4472761555106685</v>
+        <v>0.4473699775018053</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.368140249686795</v>
+        <v>0.3676359982295684</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>415035</v>
+        <v>411808</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>425423</v>
+        <v>425330</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>303779</v>
+        <v>306141</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>232759</v>
+        <v>235821</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>124797</v>
+        <v>128780</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>165637</v>
+        <v>164309</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>105300</v>
+        <v>104014</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>62555</v>
+        <v>61852</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>548886</v>
+        <v>550071</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>606509</v>
+        <v>602733</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>422070</v>
+        <v>425052</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>303652</v>
+        <v>304790</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>474038</v>
+        <v>475056</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>488223</v>
+        <v>488891</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>356324</v>
+        <v>358404</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>280127</v>
+        <v>280110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>171427</v>
+        <v>173106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>216516</v>
+        <v>214881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>149308</v>
+        <v>148801</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>90468</v>
+        <v>89304</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>629022</v>
+        <v>630309</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>692333</v>
+        <v>686238</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>496199</v>
+        <v>492792</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>364938</v>
+        <v>365035</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>960691</v>
+        <v>963627</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1030822</v>
+        <v>1028852</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1131414</v>
+        <v>1135007</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>991951</v>
+        <v>994003</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>456912</v>
+        <v>458476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>467928</v>
+        <v>467935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>644243</v>
+        <v>639529</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>523984</v>
+        <v>517301</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1434018</v>
+        <v>1441533</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1517236</v>
+        <v>1516614</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1795141</v>
+        <v>1804260</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1533584</v>
+        <v>1538304</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1043747</v>
+        <v>1042857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1118710</v>
+        <v>1116203</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1225372</v>
+        <v>1222624</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1099219</v>
+        <v>1099196</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>528868</v>
+        <v>531665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>541050</v>
+        <v>541375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>728701</v>
+        <v>722336</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>604013</v>
+        <v>595673</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1551918</v>
+        <v>1558258</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1634893</v>
+        <v>1636408</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1924424</v>
+        <v>1928344</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1672725</v>
+        <v>1683581</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>304535</v>
+        <v>303521</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>282643</v>
+        <v>282684</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>331534</v>
+        <v>333129</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>335789</v>
+        <v>339471</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>159771</v>
+        <v>161803</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>180706</v>
+        <v>178570</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>239992</v>
+        <v>241777</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>246673</v>
+        <v>248265</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>477720</v>
+        <v>480748</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>471568</v>
+        <v>471754</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>586273</v>
+        <v>585832</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>601036</v>
+        <v>599174</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>351888</v>
+        <v>354203</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>329013</v>
+        <v>330098</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>376334</v>
+        <v>377473</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>396249</v>
+        <v>397083</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>203344</v>
+        <v>203739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>223798</v>
+        <v>225375</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>289423</v>
+        <v>286038</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>294560</v>
+        <v>295530</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>541460</v>
+        <v>540699</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>536192</v>
+        <v>535095</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>651772</v>
+        <v>649635</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>674947</v>
+        <v>675640</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1773994</v>
+        <v>1772224</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1807283</v>
+        <v>1812179</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1611026</v>
+        <v>1610623</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>841693</v>
+        <v>844908</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1016764</v>
+        <v>1015966</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>854620</v>
+        <v>855607</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2641543</v>
+        <v>2643133</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2842518</v>
+        <v>2855327</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2488281</v>
+        <v>2495102</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1888079</v>
+        <v>1889072</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1927297</v>
+        <v>1927184</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1744965</v>
+        <v>1742428</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>944807</v>
+        <v>946689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1129352</v>
+        <v>1127434</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>954297</v>
+        <v>952114</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2814650</v>
+        <v>2809593</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3017520</v>
+        <v>3018153</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2662646</v>
+        <v>2658999</v>
       </c>
     </row>
     <row r="20">
